--- a/va_facility_data_2025-02-20/Dalhart VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dalhart%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dalhart VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dalhart%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7322fe6e359046388208c394bf8df173"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R428c573215f44d62b750b30f47222980"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R888c11c21bd34f63901497f65d971199"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re098dd12526646d694574cabbd2c25cd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R90abe280a11047ca965fd850db0bb862"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R658c25354544461fa4e5f2312f761498"/>
   </x:sheets>
 </x:workbook>
 </file>
